--- a/E2TGST/Resources/SalesEntriesB.xlsx
+++ b/E2TGST/Resources/SalesEntriesB.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>Custom Sales Ledger Name</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -172,6 +175,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -489,10 +495,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SalesEntries"/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,11 +511,12 @@
     <col min="6" max="8" width="20" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="11" max="11" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -542,6 +549,9 @@
       </c>
       <c r="K1" s="11" t="s">
         <v>4</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
